--- a/SALT/CrCl3.xlsx
+++ b/SALT/CrCl3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE9395-74CD-8444-8CA3-0DAF44C2AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932E3107-78E7-0D46-94A7-EC28A9E5F85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="7880" windowWidth="18900" windowHeight="16440" xr2:uid="{34746582-8212-664D-884A-C13441D80DD5}"/>
+    <workbookView xWindow="6360" yWindow="500" windowWidth="18900" windowHeight="15880" xr2:uid="{34746582-8212-664D-884A-C13441D80DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="mixing test" sheetId="1" r:id="rId1"/>
@@ -166,13 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +488,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,28 +865,28 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19">
+        <v>0.02</v>
+      </c>
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
         <v>0.51200000000000001</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="1">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" t="s">
         <v>26</v>
       </c>
     </row>
